--- a/Matuchet/ЛОК 2023/Хозрасходы  ЛОК 2023 ЭБЦ.xlsx
+++ b/Matuchet/ЛОК 2023/Хозрасходы  ЛОК 2023 ЭБЦ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144" tabRatio="500" activeTab="5"/>
+    <workbookView windowWidth="22188" windowHeight="9144" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Хайтов" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Пичугин" sheetId="4" r:id="rId4"/>
     <sheet name="Полоскин" sheetId="5" r:id="rId5"/>
     <sheet name="Сводка" sheetId="6" r:id="rId6"/>
+    <sheet name="Стоимости заказов" sheetId="7" r:id="rId7"/>
+    <sheet name="Лист8" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Сводка!$A$1:$G$35</definedName>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="154">
   <si>
     <t>что</t>
   </si>
@@ -475,16 +477,35 @@
   <si>
     <t>ИТОГО</t>
   </si>
+  <si>
+    <t>Стоимость заказа</t>
+  </si>
+  <si>
+    <t>Фактическая стоимость</t>
+  </si>
+  <si>
+    <t>% Недостачи</t>
+  </si>
+  <si>
+    <t>Сколько надо докинуть</t>
+  </si>
+  <si>
+    <t>Скучас-Ляндзберг</t>
+  </si>
+  <si>
+    <t>Пичугин</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;₽&quot;* #\ ##0.00_-;\-&quot;₽&quot;* #\ ##0.00_-;_-&quot;₽&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\ ##0_-;\-&quot;₽&quot;* #\ ##0_-;_-&quot;₽&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1179,8 +1200,11 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1215,7 +1239,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1830,8 +1853,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1872,7 +1895,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D2">
@@ -2031,7 +2054,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5462962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2042,197 +2065,197 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:8">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" ht="15.6" spans="1:7">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
         <v>26800</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="3">
         <f t="shared" ref="G2:G8" si="0">E2*F2</f>
         <v>26800</v>
       </c>
     </row>
     <row r="3" ht="31.2" spans="1:7">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="3">
         <v>5300</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:7">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>5900</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>5900</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:7">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>4800</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:7">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="3">
         <v>21065</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="3">
         <v>1020</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="3">
         <v>2200</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:7">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>40</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:7">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <f>SUM(G2:G8)</f>
         <v>46260</v>
       </c>
@@ -2262,7 +2285,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5462962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2275,28 +2298,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -2305,7 +2328,7 @@
       <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
@@ -2321,7 +2344,7 @@
         <f t="shared" ref="G2:G10" si="0">E2*F2</f>
         <v>23000</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -2330,7 +2353,7 @@
       <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D3" t="s">
@@ -2346,7 +2369,7 @@
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -2355,7 +2378,7 @@
       <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D4" t="s">
@@ -2371,7 +2394,7 @@
         <f t="shared" si="0"/>
         <v>59040</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -2380,7 +2403,7 @@
       <c r="B5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
@@ -2396,7 +2419,7 @@
         <f t="shared" si="0"/>
         <v>62000</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -2405,7 +2428,7 @@
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D6" t="s">
@@ -2421,7 +2444,7 @@
         <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -2430,7 +2453,7 @@
       <c r="B7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D7" t="s">
@@ -2446,7 +2469,7 @@
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -2455,10 +2478,10 @@
       <c r="B8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="17" t="s">
         <v>76</v>
       </c>
       <c r="E8">
@@ -2471,7 +2494,7 @@
         <f t="shared" si="0"/>
         <v>29380</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -2480,10 +2503,10 @@
       <c r="B9" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E9">
@@ -2496,7 +2519,7 @@
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -2505,10 +2528,10 @@
       <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="17" t="s">
         <v>84</v>
       </c>
       <c r="E10">
@@ -2521,7 +2544,7 @@
         <f t="shared" si="0"/>
         <v>3920</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -2533,7 +2556,7 @@
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="18" t="s">
         <v>85</v>
       </c>
       <c r="E11">
@@ -2575,104 +2598,104 @@
   <sheetPr/>
   <dimension ref="A2:G9"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.15740740740741" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.3796296296296" style="7" customWidth="1"/>
-    <col min="2" max="2" width="43.3611111111111" style="7" customWidth="1"/>
-    <col min="3" max="3" width="5.21296296296296" style="7" customWidth="1"/>
-    <col min="4" max="4" width="3.96296296296296" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.83333333333333" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.7222222222222" style="7" customWidth="1"/>
-    <col min="7" max="7" width="3.62037037037037" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.3796296296296" style="10" customWidth="1"/>
+    <col min="2" max="2" width="43.3611111111111" style="10" customWidth="1"/>
+    <col min="3" max="3" width="5.21296296296296" style="10" customWidth="1"/>
+    <col min="4" max="4" width="3.96296296296296" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.83333333333333" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.7222222222222" style="10" customWidth="1"/>
+    <col min="7" max="7" width="3.62037037037037" style="11" customWidth="1"/>
     <col min="8" max="8" width="10.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="79.2" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="39.6" spans="1:7">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="14">
         <v>540</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="14">
         <v>38</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="14">
         <f>D3*C3</f>
         <v>20520</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" ht="158.4" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="14">
         <v>35000</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="14">
         <v>3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="14">
         <f>D4*C4</f>
         <v>105000</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="7">
+      <c r="E6" s="10">
         <f>SUM(E3:E5)</f>
         <v>125520</v>
       </c>
     </row>
     <row r="9" spans="6:6">
-      <c r="F9" s="7">
+      <c r="F9" s="10">
         <v>125300</v>
       </c>
     </row>
@@ -2691,14 +2714,14 @@
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5462962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="39.5740740740741" customWidth="1"/>
-    <col min="2" max="2" width="38.2777777777778" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.2777777777778" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2710,7 +2733,7 @@
       <c r="A2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C2" t="s">
@@ -2727,7 +2750,7 @@
       <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C3">
@@ -2742,7 +2765,7 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E4">
@@ -2751,7 +2774,7 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E5">
@@ -2760,7 +2783,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E6">
@@ -2769,7 +2792,7 @@
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2777,7 +2800,7 @@
       <c r="A8" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C8">
@@ -2792,22 +2815,22 @@
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2815,7 +2838,7 @@
       <c r="A14" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C14">
@@ -2848,7 +2871,7 @@
       <c r="A16" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C16">
@@ -2863,7 +2886,7 @@
       </c>
     </row>
     <row r="17" ht="115.2" spans="2:2">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2871,7 +2894,7 @@
       <c r="A18" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C18">
@@ -2886,7 +2909,7 @@
       </c>
     </row>
     <row r="19" ht="167.25" customHeight="1" spans="2:5">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>119</v>
       </c>
       <c r="E19">
@@ -2898,7 +2921,7 @@
       <c r="A20" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C20">
@@ -2916,7 +2939,7 @@
       <c r="A21" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C21">
@@ -2931,7 +2954,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>124</v>
       </c>
       <c r="E22">
@@ -2943,7 +2966,7 @@
       <c r="A23" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C23">
@@ -2958,7 +2981,7 @@
       </c>
     </row>
     <row r="24" ht="43.2" spans="2:2">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2966,7 +2989,7 @@
       <c r="A26" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C26">
@@ -2984,7 +3007,7 @@
       <c r="A27" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C27">
@@ -3021,832 +3044,832 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="18.2222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7685185185185" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.4537037037037" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="65.4444444444444" style="1" customWidth="1"/>
-    <col min="8" max="1024" width="8.88888888888889" style="1"/>
+    <col min="1" max="2" width="18.2222222222222" style="4" customWidth="1"/>
+    <col min="3" max="3" width="51.7685185185185" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.4537037037037" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.8888888888889" style="4" customWidth="1"/>
+    <col min="7" max="7" width="65.4444444444444" style="4" customWidth="1"/>
+    <col min="8" max="1024" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>5900</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <f>D2*E2</f>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F35" si="0">D2*E2</f>
         <v>5900</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="13" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>4800</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <f>D3*E3</f>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" ht="13" customHeight="1" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>1020</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <f>D4*E4</f>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
         <v>1020</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>2200</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <f>D5*E5</f>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" ht="13" customHeight="1" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>40</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>6</v>
       </c>
-      <c r="F6" s="1">
-        <f>D6*E6</f>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" ht="13" customHeight="1" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>23000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <f>D7*E7</f>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
         <v>23000</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" ht="13" customHeight="1" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>18900</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <f>D8*E8</f>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" ht="13" customHeight="1" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>29520</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
-        <f>D9*E9</f>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
         <v>59040</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" ht="13" customHeight="1" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>31000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="1">
-        <f>D10*E10</f>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
         <v>62000</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" ht="13" customHeight="1" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>24900</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
-        <f>D11*E11</f>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" ht="13" customHeight="1" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>5300</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
-        <f>D12*E12</f>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
         <v>10600</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="1" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>490</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>8</v>
       </c>
-      <c r="F13" s="1">
-        <f>D13*E13</f>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
         <v>3920</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>10000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" s="1">
-        <f>D14*E14</f>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>14690</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="1">
-        <f>D15*E15</f>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
         <v>29380</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" ht="13" customHeight="1" spans="1:7">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>35000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F16" s="1">
-        <f>D16*E16</f>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" ht="13" customHeight="1" spans="1:7">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>540</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>43</v>
       </c>
-      <c r="F17" s="1">
-        <f>D17*E17</f>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
         <v>23220</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" ht="13" customHeight="1" spans="1:6">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>6790</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="1">
-        <f>D18*E18</f>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
         <v>13580</v>
       </c>
     </row>
     <row r="19" ht="13" customHeight="1" spans="1:6">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>850</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>8</v>
       </c>
-      <c r="F19" s="1">
-        <f>D19*E19</f>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
         <v>6800</v>
       </c>
     </row>
     <row r="20" ht="13" customHeight="1" spans="1:6">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>38900</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="1">
-        <f>D20*E20</f>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
         <v>38900</v>
       </c>
     </row>
     <row r="21" ht="13" customHeight="1" spans="1:6">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>3060</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>3</v>
       </c>
-      <c r="F21" s="1">
-        <f>D21*E21</f>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
         <v>9180</v>
       </c>
     </row>
     <row r="22" ht="13" customHeight="1" spans="1:6">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>3500</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>2</v>
       </c>
-      <c r="F22" s="1">
-        <f>D22*E22</f>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
     </row>
     <row r="23" ht="13" customHeight="1" spans="1:6">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>7330</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>2</v>
       </c>
-      <c r="F23" s="1">
-        <f>D23*E23</f>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
         <v>14660</v>
       </c>
     </row>
     <row r="24" ht="13" customHeight="1" spans="1:6">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>280</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="1">
-        <f>D24*E24</f>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
     </row>
     <row r="25" ht="13" customHeight="1" spans="1:6">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>22950</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="1">
-        <f>D25*E25</f>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
         <v>22950</v>
       </c>
     </row>
     <row r="26" ht="13" customHeight="1" spans="1:6">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>650</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="1">
-        <f>D26*E26</f>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
         <v>1300</v>
       </c>
     </row>
     <row r="27" ht="13" customHeight="1" spans="1:6">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>1500</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="F27" s="1">
-        <f>D27*E27</f>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
     <row r="28" ht="13" customHeight="1" spans="1:6">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>4000</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>2</v>
       </c>
-      <c r="F28" s="1">
-        <f>D28*E28</f>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
     </row>
     <row r="29" ht="13" customHeight="1" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>5320</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="1">
-        <f>D29*E29</f>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
         <v>10640</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" ht="13" customHeight="1" spans="1:7">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>4700</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="1">
-        <f>D30*E30</f>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
         <v>4700</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" ht="13" customHeight="1" spans="1:7">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>26800</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>3</v>
       </c>
-      <c r="F31" s="1">
-        <f>D31*E31</f>
+      <c r="F31" s="4">
+        <f t="shared" si="0"/>
         <v>80400</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" ht="13" customHeight="1" spans="1:7">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>12150</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="1">
-        <f>D32*E32</f>
+      <c r="F32" s="4">
+        <f t="shared" si="0"/>
         <v>12150</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" ht="13" customHeight="1" spans="1:7">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <v>3550</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="4">
         <v>1</v>
       </c>
-      <c r="F33" s="1">
-        <f>D33*E33</f>
+      <c r="F33" s="4">
+        <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" ht="13" customHeight="1" spans="1:7">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <v>35770</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="1">
-        <f>D34*E34</f>
+      <c r="F34" s="4">
+        <f t="shared" si="0"/>
         <v>35770</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" ht="13" customHeight="1" spans="1:7">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <v>1750</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="4">
         <v>2</v>
       </c>
-      <c r="F35" s="1">
-        <f>D35*E35</f>
+      <c r="F35" s="4">
+        <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" ht="13" customHeight="1" spans="5:6">
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="4">
         <f>SUM(F2:F35)</f>
         <v>668980</v>
       </c>
@@ -3881,4 +3904,335 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="27.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="17.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="23.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="12.8888888888889"/>
+    <col min="5" max="5" width="23.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2">
+        <v>124150</v>
+      </c>
+      <c r="C2">
+        <v>107930</v>
+      </c>
+      <c r="D2" s="2">
+        <f>(1-C2/B2)*100</f>
+        <v>13.0648409182441</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B2-C2</f>
+        <v>16220</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:5">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="3">
+        <v>46260</v>
+      </c>
+      <c r="C3">
+        <v>36194</v>
+      </c>
+      <c r="D3" s="2">
+        <f>(1-C3/B3)*100</f>
+        <v>21.7596195417207</v>
+      </c>
+      <c r="E3" s="2">
+        <f>B3-C3</f>
+        <v>10066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4">
+        <v>123910</v>
+      </c>
+      <c r="C4">
+        <v>97025</v>
+      </c>
+      <c r="D4" s="2">
+        <f>(1-C4/B4)*100</f>
+        <v>21.6971995803406</v>
+      </c>
+      <c r="E4" s="2">
+        <f>B4-C4</f>
+        <v>26885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5">
+        <v>249140</v>
+      </c>
+      <c r="C5">
+        <v>196206.6</v>
+      </c>
+      <c r="D5" s="2">
+        <f>(1-C5/B5)*100</f>
+        <v>21.2464477803645</v>
+      </c>
+      <c r="E5" s="2">
+        <f>B5-C5</f>
+        <v>52933.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6">
+        <v>125520</v>
+      </c>
+      <c r="C6">
+        <v>102243</v>
+      </c>
+      <c r="D6" s="2">
+        <f>(1-C6/B6)*100</f>
+        <v>18.5444550669216</v>
+      </c>
+      <c r="E6" s="2">
+        <f>B6-C6</f>
+        <v>23277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="10.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="9.66666666666667"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>35010</v>
+      </c>
+      <c r="B2">
+        <v>958</v>
+      </c>
+      <c r="C2">
+        <v>9378</v>
+      </c>
+      <c r="D2">
+        <v>15635</v>
+      </c>
+      <c r="E2">
+        <v>81915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>996</v>
+      </c>
+      <c r="B3">
+        <v>4240</v>
+      </c>
+      <c r="C3">
+        <v>2904</v>
+      </c>
+      <c r="D3">
+        <v>22204</v>
+      </c>
+      <c r="E3">
+        <f>44213.4/87*40</f>
+        <v>20328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>6242</v>
+      </c>
+      <c r="B4">
+        <v>20904</v>
+      </c>
+      <c r="C4">
+        <v>2968</v>
+      </c>
+      <c r="D4">
+        <f>8768/2</f>
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>8187</v>
+      </c>
+      <c r="B5">
+        <v>4384</v>
+      </c>
+      <c r="C5">
+        <f>62712/3*2</f>
+        <v>41808</v>
+      </c>
+      <c r="D5">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>12036</v>
+      </c>
+      <c r="B6">
+        <v>3960</v>
+      </c>
+      <c r="C6">
+        <v>32190</v>
+      </c>
+      <c r="D6">
+        <v>41676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1190</v>
+      </c>
+      <c r="B7">
+        <v>1550</v>
+      </c>
+      <c r="C7">
+        <v>3763</v>
+      </c>
+      <c r="D7">
+        <v>14116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>20655</v>
+      </c>
+      <c r="B8">
+        <v>198</v>
+      </c>
+      <c r="C8">
+        <v>4014</v>
+      </c>
+      <c r="D8">
+        <v>23060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>11608</v>
+      </c>
+      <c r="D9">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>4960</v>
+      </c>
+      <c r="D10">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6794</v>
+      </c>
+      <c r="D11">
+        <f>508.2*8</f>
+        <v>4065.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <f>SUM(A2:A13)</f>
+        <v>107930</v>
+      </c>
+      <c r="B14" s="1">
+        <f>SUM(B2:B13)</f>
+        <v>36194</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SUM(C2:C13)</f>
+        <v>97025</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SUM(D2:D13)</f>
+        <v>196206.6</v>
+      </c>
+      <c r="E14" s="1">
+        <f>SUM(E2:E13)</f>
+        <v>102243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Matuchet/ЛОК 2023/Хозрасходы  ЛОК 2023 ЭБЦ.xlsx
+++ b/Matuchet/ЛОК 2023/Хозрасходы  ЛОК 2023 ЭБЦ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="22188" windowHeight="9144" tabRatio="500" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Хайтов" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="Полоскин" sheetId="5" r:id="rId5"/>
     <sheet name="Сводка" sheetId="6" r:id="rId6"/>
     <sheet name="Стоимости заказов" sheetId="7" r:id="rId7"/>
-    <sheet name="Лист8" sheetId="8" r:id="rId8"/>
+    <sheet name="Реальные траты по заказам" sheetId="8" r:id="rId8"/>
+    <sheet name="Заявка на " sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Сводка!$A$1:$G$35</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="170">
   <si>
     <t>что</t>
   </si>
@@ -494,6 +495,54 @@
   </si>
   <si>
     <t>Пичугин</t>
+  </si>
+  <si>
+    <t>Сумма заказа</t>
+  </si>
+  <si>
+    <t>Реально потрачено по заказу</t>
+  </si>
+  <si>
+    <t>Недорасход</t>
+  </si>
+  <si>
+    <t>Остаток</t>
+  </si>
+  <si>
+    <t>Выбрано</t>
+  </si>
+  <si>
+    <t>Газ в баллоне с резьбой*</t>
+  </si>
+  <si>
+    <t>ГАз в баллоне цанговый</t>
+  </si>
+  <si>
+    <t>Баул 120л.</t>
+  </si>
+  <si>
+    <t>Веревка</t>
+  </si>
+  <si>
+    <t>Карабин автомат с муфтой</t>
+  </si>
+  <si>
+    <t>компас 22С</t>
+  </si>
+  <si>
+    <t>Компас 3С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обвязка </t>
+  </si>
+  <si>
+    <t>Палатка Marel PRO</t>
+  </si>
+  <si>
+    <t>Вчбрано</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Газ по заказу Ляндзберга-Скучаса и Пичугина в это количество не входит </t>
   </si>
 </sst>
 </file>
@@ -746,12 +795,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1073,7 +1128,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,16 +1152,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1115,96 +1170,97 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1895,7 +1951,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D2">
@@ -2065,197 +2121,197 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:8">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" ht="15.6" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>26800</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <f t="shared" ref="G2:G8" si="0">E2*F2</f>
         <v>26800</v>
       </c>
     </row>
     <row r="3" ht="31.2" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>5300</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <f t="shared" si="0"/>
         <v>5300</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>5900</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>5900</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>4800</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>21065</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>1020</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>2200</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:7">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>40</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <f>SUM(G2:G8)</f>
         <v>46260</v>
       </c>
@@ -2285,7 +2341,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5462962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2298,28 +2354,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -2328,7 +2384,7 @@
       <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
@@ -2344,7 +2400,7 @@
         <f t="shared" ref="G2:G10" si="0">E2*F2</f>
         <v>23000</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -2353,7 +2409,7 @@
       <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D3" t="s">
@@ -2369,7 +2425,7 @@
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -2378,7 +2434,7 @@
       <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D4" t="s">
@@ -2394,7 +2450,7 @@
         <f t="shared" si="0"/>
         <v>59040</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -2403,7 +2459,7 @@
       <c r="B5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D5" t="s">
@@ -2419,7 +2475,7 @@
         <f t="shared" si="0"/>
         <v>62000</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -2428,7 +2484,7 @@
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D6" t="s">
@@ -2444,7 +2500,7 @@
         <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
@@ -2453,7 +2509,7 @@
       <c r="B7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D7" t="s">
@@ -2469,7 +2525,7 @@
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -2478,10 +2534,10 @@
       <c r="B8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>76</v>
       </c>
       <c r="E8">
@@ -2494,7 +2550,7 @@
         <f t="shared" si="0"/>
         <v>29380</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -2503,10 +2559,10 @@
       <c r="B9" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>80</v>
       </c>
       <c r="E9">
@@ -2519,7 +2575,7 @@
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -2528,10 +2584,10 @@
       <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>84</v>
       </c>
       <c r="E10">
@@ -2544,7 +2600,7 @@
         <f t="shared" si="0"/>
         <v>3920</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -2556,7 +2612,7 @@
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>85</v>
       </c>
       <c r="E11">
@@ -2604,98 +2660,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.15740740740741" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.3796296296296" style="10" customWidth="1"/>
-    <col min="2" max="2" width="43.3611111111111" style="10" customWidth="1"/>
-    <col min="3" max="3" width="5.21296296296296" style="10" customWidth="1"/>
-    <col min="4" max="4" width="3.96296296296296" style="10" customWidth="1"/>
-    <col min="5" max="5" width="8.83333333333333" style="10" customWidth="1"/>
-    <col min="6" max="6" width="20.7222222222222" style="10" customWidth="1"/>
-    <col min="7" max="7" width="3.62037037037037" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.3796296296296" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.3611111111111" style="11" customWidth="1"/>
+    <col min="3" max="3" width="5.21296296296296" style="11" customWidth="1"/>
+    <col min="4" max="4" width="3.96296296296296" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.83333333333333" style="11" customWidth="1"/>
+    <col min="6" max="6" width="20.7222222222222" style="11" customWidth="1"/>
+    <col min="7" max="7" width="3.62037037037037" style="12" customWidth="1"/>
     <col min="8" max="8" width="10.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="79.2" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" ht="39.6" spans="1:7">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>540</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="15">
         <v>38</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="15">
         <f>D3*C3</f>
         <v>20520</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" ht="158.4" spans="1:7">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>35000</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="15">
         <v>3</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <f>D4*C4</f>
         <v>105000</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <f>SUM(E3:E5)</f>
         <v>125520</v>
       </c>
     </row>
     <row r="9" spans="6:6">
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>125300</v>
       </c>
     </row>
@@ -2721,7 +2777,7 @@
   <sheetFormatPr defaultColWidth="8.5462962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="39.5740740740741" customWidth="1"/>
-    <col min="2" max="2" width="38.2777777777778" style="9" customWidth="1"/>
+    <col min="2" max="2" width="38.2777777777778" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2733,7 +2789,7 @@
       <c r="A2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C2" t="s">
@@ -2750,7 +2806,7 @@
       <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C3">
@@ -2765,7 +2821,7 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>102</v>
       </c>
       <c r="E4">
@@ -2774,7 +2830,7 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>103</v>
       </c>
       <c r="E5">
@@ -2783,7 +2839,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>104</v>
       </c>
       <c r="E6">
@@ -2792,7 +2848,7 @@
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2800,7 +2856,7 @@
       <c r="A8" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C8">
@@ -2815,22 +2871,22 @@
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2838,7 +2894,7 @@
       <c r="A14" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C14">
@@ -2871,7 +2927,7 @@
       <c r="A16" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C16">
@@ -2886,7 +2942,7 @@
       </c>
     </row>
     <row r="17" ht="115.2" spans="2:2">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2894,7 +2950,7 @@
       <c r="A18" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C18">
@@ -2909,7 +2965,7 @@
       </c>
     </row>
     <row r="19" ht="167.25" customHeight="1" spans="2:5">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E19">
@@ -2921,7 +2977,7 @@
       <c r="A20" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C20">
@@ -2939,7 +2995,7 @@
       <c r="A21" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C21">
@@ -2954,7 +3010,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E22">
@@ -2966,7 +3022,7 @@
       <c r="A23" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C23">
@@ -2981,7 +3037,7 @@
       </c>
     </row>
     <row r="24" ht="43.2" spans="2:2">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2989,7 +3045,7 @@
       <c r="A26" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C26">
@@ -3007,7 +3063,7 @@
       <c r="A27" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C27">
@@ -3050,826 +3106,826 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="18.2222222222222" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51.7685185185185" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.4537037037037" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" style="4" customWidth="1"/>
-    <col min="7" max="7" width="65.4444444444444" style="4" customWidth="1"/>
-    <col min="8" max="1024" width="8.88888888888889" style="4"/>
+    <col min="1" max="2" width="18.2222222222222" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.7685185185185" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.4537037037037" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.8888888888889" style="5" customWidth="1"/>
+    <col min="7" max="7" width="65.4444444444444" style="5" customWidth="1"/>
+    <col min="8" max="1024" width="8.88888888888889" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>5900</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <f t="shared" ref="F2:F35" si="0">D2*E2</f>
         <v>5900</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="13" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>4800</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" ht="13" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>1020</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" ht="13" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>2200</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" ht="13" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>40</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>6</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" ht="13" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>23000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>23000</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" ht="13" customHeight="1" spans="1:7">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>18900</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" ht="13" customHeight="1" spans="1:7">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>29520</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>59040</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" ht="13" customHeight="1" spans="1:7">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>31000</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>62000</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" ht="13" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>24900</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" ht="13" customHeight="1" spans="1:7">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>5300</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>10600</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="1" spans="1:7">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>490</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>8</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>3920</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:7">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>10000</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:7">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>14690</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>29380</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" ht="13" customHeight="1" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>35000</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>3</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" ht="13" customHeight="1" spans="1:7">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>540</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>43</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>23220</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" ht="13" customHeight="1" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>6790</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>13580</v>
       </c>
     </row>
     <row r="19" ht="13" customHeight="1" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>850</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>8</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>6800</v>
       </c>
     </row>
     <row r="20" ht="13" customHeight="1" spans="1:6">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>38900</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <f t="shared" si="0"/>
         <v>38900</v>
       </c>
     </row>
     <row r="21" ht="13" customHeight="1" spans="1:6">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>3060</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>3</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>9180</v>
       </c>
     </row>
     <row r="22" ht="13" customHeight="1" spans="1:6">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>3500</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>2</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
     </row>
     <row r="23" ht="13" customHeight="1" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>7330</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>2</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>14660</v>
       </c>
     </row>
     <row r="24" ht="13" customHeight="1" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>280</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>1</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
     </row>
     <row r="25" ht="13" customHeight="1" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>22950</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>22950</v>
       </c>
     </row>
     <row r="26" ht="13" customHeight="1" spans="1:6">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <v>650</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>2</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
     </row>
     <row r="27" ht="13" customHeight="1" spans="1:6">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="5">
         <v>1500</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>1</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
     <row r="28" ht="13" customHeight="1" spans="1:6">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <v>4000</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
     </row>
     <row r="29" ht="13" customHeight="1" spans="1:7">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <v>5320</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>2</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>10640</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" ht="13" customHeight="1" spans="1:7">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>4700</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <f t="shared" si="0"/>
         <v>4700</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" ht="13" customHeight="1" spans="1:7">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <v>26800</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>3</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <f t="shared" si="0"/>
         <v>80400</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" ht="13" customHeight="1" spans="1:7">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>12150</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>1</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <f t="shared" si="0"/>
         <v>12150</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" ht="13" customHeight="1" spans="1:7">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="5">
         <v>3550</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <v>1</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" ht="13" customHeight="1" spans="1:7">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>35770</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>1</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <f t="shared" si="0"/>
         <v>35770</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" ht="13" customHeight="1" spans="1:7">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <v>1750</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <v>2</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" ht="13" customHeight="1" spans="5:6">
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <f>SUM(F2:F35)</f>
         <v>668980</v>
       </c>
@@ -3911,8 +3967,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -3948,11 +4004,11 @@
       <c r="C2">
         <v>107930</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <f>(1-C2/B2)*100</f>
         <v>13.0648409182441</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <f>B2-C2</f>
         <v>16220</v>
       </c>
@@ -3961,17 +4017,17 @@
       <c r="A3" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>46260</v>
       </c>
       <c r="C3">
         <v>36194</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <f>(1-C3/B3)*100</f>
         <v>21.7596195417207</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <f>B3-C3</f>
         <v>10066</v>
       </c>
@@ -3986,11 +4042,11 @@
       <c r="C4">
         <v>97025</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <f>(1-C4/B4)*100</f>
         <v>21.6971995803406</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <f>B4-C4</f>
         <v>26885</v>
       </c>
@@ -4005,11 +4061,11 @@
       <c r="C5">
         <v>196206.6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <f>(1-C5/B5)*100</f>
         <v>21.2464477803645</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <f>B5-C5</f>
         <v>52933.4</v>
       </c>
@@ -4024,11 +4080,11 @@
       <c r="C6">
         <v>102243</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <f>(1-C6/B6)*100</f>
         <v>18.5444550669216</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <f>B6-C6</f>
         <v>23277</v>
       </c>
@@ -4053,6 +4109,7 @@
     <col min="2" max="2" width="10.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="18.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="9.66666666666667"/>
+    <col min="9" max="9" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4126,7 +4183,7 @@
       <c r="A5">
         <v>8187</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4384</v>
       </c>
       <c r="C5">
@@ -4199,9 +4256,9 @@
       <c r="A11">
         <v>6794</v>
       </c>
-      <c r="D11">
-        <f>508.2*8</f>
-        <v>4065.6</v>
+      <c r="D11" s="2">
+        <f>508.2*5</f>
+        <v>2541</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -4210,25 +4267,355 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <f>SUM(A2:A13)</f>
         <v>107930</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <f>SUM(B2:B13)</f>
         <v>36194</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <f>SUM(C2:C13)</f>
         <v>97025</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <f>SUM(D2:D13)</f>
-        <v>196206.6</v>
-      </c>
-      <c r="E14" s="1">
+        <v>194682</v>
+      </c>
+      <c r="E14" s="3">
         <f>SUM(E2:E13)</f>
         <v>102243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="19.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="28.8888888888889" customWidth="1"/>
+    <col min="5" max="6" width="10.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="8.44444444444444" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:9">
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="4:9">
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2">
+        <v>124150</v>
+      </c>
+      <c r="F2" s="1">
+        <v>46260</v>
+      </c>
+      <c r="G2">
+        <v>123910</v>
+      </c>
+      <c r="H2">
+        <v>249140</v>
+      </c>
+      <c r="I2">
+        <v>125520</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9">
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3">
+        <v>107930</v>
+      </c>
+      <c r="F3">
+        <v>36194</v>
+      </c>
+      <c r="G3">
+        <v>97025</v>
+      </c>
+      <c r="H3">
+        <v>194682</v>
+      </c>
+      <c r="I3">
+        <v>102243</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9">
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4">
+        <f>E2-E3</f>
+        <v>16220</v>
+      </c>
+      <c r="F4">
+        <f>F2-F3</f>
+        <v>10066</v>
+      </c>
+      <c r="G4">
+        <f>G2-G3</f>
+        <v>26885</v>
+      </c>
+      <c r="H4">
+        <f>H2-H3</f>
+        <v>54458</v>
+      </c>
+      <c r="I4">
+        <f>I2-I3</f>
+        <v>23277</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9">
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="2">
+        <f>E4-E17</f>
+        <v>16220</v>
+      </c>
+      <c r="F5" s="2">
+        <f>F4-F17</f>
+        <v>10066</v>
+      </c>
+      <c r="G5" s="2">
+        <f>G4-G17</f>
+        <v>319</v>
+      </c>
+      <c r="H5" s="2">
+        <f>H4-H17</f>
+        <v>54458</v>
+      </c>
+      <c r="I5" s="2">
+        <f>I4-I17</f>
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7">
+        <v>508.2</v>
+      </c>
+      <c r="C7">
+        <f>40-J7</f>
+        <v>40</v>
+      </c>
+      <c r="J7" s="3">
+        <f>SUM(E7:I7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8">
+        <v>90.5</v>
+      </c>
+      <c r="C8">
+        <f>56-J8</f>
+        <v>56</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" ref="J8:J15" si="0">SUM(E8:I8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9">
+        <v>4750</v>
+      </c>
+      <c r="C9">
+        <f>4-J9</f>
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <f>400-J10</f>
+        <v>300</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11">
+        <v>1152</v>
+      </c>
+      <c r="C11">
+        <f>28-J11</f>
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12">
+        <v>871</v>
+      </c>
+      <c r="C12">
+        <f>15-J12</f>
+        <v>15</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13">
+        <v>2323</v>
+      </c>
+      <c r="C13">
+        <f>20-J13</f>
+        <v>20</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14">
+        <v>4718</v>
+      </c>
+      <c r="C14">
+        <f>10-J14</f>
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15">
+        <v>17210</v>
+      </c>
+      <c r="C15">
+        <f>2-J15</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9">
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17">
+        <f>$B7*E7+$B8*E8+$B9*E9+$B10*E10+$B11*E11+$B12*E12+$B13*E13+$B14*E14+$B15*E15</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>$B7*F7+$B8*F8+$B9*F9+$B10*F10+$B11*F11+$B12*F12+$B13*F13+$B14*F14+$B15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>$B7*G7+$B8*G8+$B9*G9+$B10*G10+$B11*G11+$B12*G12+$B13*G13+$B14*G14+$B15*G15</f>
+        <v>26566</v>
+      </c>
+      <c r="H17">
+        <f>$B7*H7+$B8*H8+$B9*H9+$B10*H10+$B11*H11+$B12*H12+$B13*H13+$B14*H14+$B15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>$B7*I7+$B8*I8+$B9*I9+$B10*I10+$B11*I11+$B12*I12+$B13*I13+$B14*I14+$B15*I15</f>
+        <v>17210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Matuchet/ЛОК 2023/Хозрасходы  ЛОК 2023 ЭБЦ.xlsx
+++ b/Matuchet/ЛОК 2023/Хозрасходы  ЛОК 2023 ЭБЦ.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Lab-processings\Matuchet\ЛОК 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144" tabRatio="500" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="9150" tabRatio="500" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Хайтов" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Сводка!$A$1:$G$35</definedName>
     <definedName name="Excel_BuiltIn_Print_Area" localSheetId="3">Пичугин!$A$1:$H$5</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -548,15 +553,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;₽&quot;* #\ ##0.00_-;\-&quot;₽&quot;* #\ ##0.00_-;_-&quot;₽&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\ ##0_-;\-&quot;₽&quot;* #\ ##0_-;_-&quot;₽&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -646,156 +647,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,194 +666,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1018,253 +690,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -1286,7 +727,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1296,7 +737,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1304,92 +745,160 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink 1" xfId="2"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
-    <cellStyle name="Hyperlink 1" xfId="49"/>
-    <cellStyle name="Обычный_заказ_Седова" xfId="50"/>
-    <cellStyle name="Обычный_хозы_ЛБ" xfId="51"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1400,7 +909,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1428,149 +937,32 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1644,6 +1036,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1901,23 +1296,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.2685185185185" customWidth="1"/>
-    <col min="2" max="2" width="51.7685185185185" customWidth="1"/>
-    <col min="3" max="3" width="59.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1944,7 +1339,7 @@
         <v>123910</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1965,7 +1360,7 @@
         <v>53600</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1986,7 +1381,7 @@
         <v>12150</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2007,7 +1402,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2028,7 +1423,7 @@
         <v>35770</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2049,7 +1444,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2070,7 +1465,7 @@
         <v>10640</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2093,9 +1488,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.equip.ru/shop?mode=product&amp;product_id=2620800"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
@@ -2105,22 +1500,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5462962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.4259259259259" customWidth="1"/>
-    <col min="2" max="2" width="29.5740740740741" customWidth="1"/>
-    <col min="3" max="3" width="31.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:8">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -2144,7 +1538,7 @@
       </c>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" ht="15.6" spans="1:7">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -2166,7 +1560,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="3" ht="31.2" spans="1:7">
+    <row r="3" spans="1:8" ht="31.5">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -2190,7 +1584,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:7">
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -2212,7 +1606,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -2234,7 +1628,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2258,7 +1652,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -2282,7 +1676,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:7">
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -2304,7 +1698,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2318,15 +1712,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.equip.ru/shop?mode=product&amp;product_id=2620800"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://www.equip.ru/shop?mode=product&amp;product_id=6946800"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://www.equip.ru/shop?mode=product&amp;product_id=1860400"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://www.equip.ru/shop?mode=product&amp;product_id=1933200"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://www.equip.ru/shop?mode=product&amp;product_id=7077400"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://www.equip.ru/shop?mode=product&amp;product_id=7344400"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://www.equip.ru/shop?mode=product&amp;product_id=7039000"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
@@ -2336,21 +1730,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5462962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.4537037037037" customWidth="1"/>
-    <col min="2" max="2" width="29.3611111111111" customWidth="1"/>
-    <col min="3" max="3" width="23.5925925925926" customWidth="1"/>
-    <col min="8" max="8" width="25.537037037037" customWidth="1"/>
-    <col min="1024" max="1024" width="9.13888888888889" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2602,7 +1995,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2625,7 +2018,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="13" spans="7:7">
+    <row r="13" spans="1:8">
       <c r="G13">
         <f>SUM(G2:G12)</f>
         <v>249140</v>
@@ -2633,44 +2026,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.equip.ru/shop?mode=product&amp;product_id=7069000"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://www.equip.ru/shop?mode=product&amp;product_id=7046400"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://www.equip.ru/shop?mode=product&amp;product_id=1785800"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://www.equip.ru/shop?mode=product&amp;product_id=1782800"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://www.equip.ru/shop?mode=product&amp;product_id=6362000"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://www.equip.ru/shop?mode=product&amp;product_id=2098200"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://www.equip.ru/shop?mode=product&amp;product_id=7074400"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://www.equip.ru/shop?mode=product&amp;product_id=1895600"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://www.equip.ru/shop?mode=product&amp;product_id=6797600"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G9"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.15740740740741" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.3796296296296" style="11" customWidth="1"/>
-    <col min="2" max="2" width="43.3611111111111" style="11" customWidth="1"/>
-    <col min="3" max="3" width="5.21296296296296" style="11" customWidth="1"/>
-    <col min="4" max="4" width="3.96296296296296" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.83333333333333" style="11" customWidth="1"/>
-    <col min="6" max="6" width="20.7222222222222" style="11" customWidth="1"/>
-    <col min="7" max="7" width="3.62037037037037" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10.0925925925926" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="4" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="79.2" spans="1:7">
+    <row r="2" spans="1:7" ht="77.25">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2691,7 +2082,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" ht="39.6" spans="1:7">
+    <row r="3" spans="1:7" ht="38.25">
       <c r="A3" s="15" t="s">
         <v>78</v>
       </c>
@@ -2713,7 +2104,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" ht="158.4" spans="1:7">
+    <row r="4" spans="1:7" ht="153">
       <c r="A4" s="15" t="s">
         <v>92</v>
       </c>
@@ -2744,19 +2135,19 @@
       <c r="F5" s="16"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="5:5">
+    <row r="6" spans="1:7">
       <c r="E6" s="11">
         <f>SUM(E3:E5)</f>
         <v>125520</v>
       </c>
     </row>
-    <row r="9" spans="6:6">
+    <row r="9" spans="1:7">
       <c r="F9" s="11">
         <v>125300</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
@@ -2766,21 +2157,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5462962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.5740740740741" customWidth="1"/>
-    <col min="2" max="2" width="38.2777777777778" style="10" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -2820,7 +2210,7 @@
         <v>9180</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="1:5">
       <c r="B4" s="10" t="s">
         <v>102</v>
       </c>
@@ -2829,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="1:5">
       <c r="B5" s="10" t="s">
         <v>103</v>
       </c>
@@ -2838,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:5">
       <c r="B6" s="10" t="s">
         <v>104</v>
       </c>
@@ -2847,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:5">
       <c r="B7" s="10" t="s">
         <v>105</v>
       </c>
@@ -2870,27 +2260,27 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:5">
       <c r="B9" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:5">
       <c r="B10" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:5">
       <c r="B11" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:5">
       <c r="B12" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" ht="43.2" spans="1:5">
+    <row r="14" spans="1:5" ht="60">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -2941,7 +2331,7 @@
         <v>38900</v>
       </c>
     </row>
-    <row r="17" ht="115.2" spans="2:2">
+    <row r="17" spans="1:5" ht="120">
       <c r="B17" s="10" t="s">
         <v>116</v>
       </c>
@@ -2964,7 +2354,7 @@
         <v>22950</v>
       </c>
     </row>
-    <row r="19" ht="167.25" customHeight="1" spans="2:5">
+    <row r="19" spans="1:5" ht="167.25" customHeight="1">
       <c r="B19" s="10" t="s">
         <v>119</v>
       </c>
@@ -2973,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="57.6" spans="1:5">
+    <row r="20" spans="1:5" ht="60">
       <c r="A20" t="s">
         <v>120</v>
       </c>
@@ -3009,7 +2399,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="1:5">
       <c r="B22" s="10" t="s">
         <v>124</v>
       </c>
@@ -3036,7 +2426,7 @@
         <v>13580</v>
       </c>
     </row>
-    <row r="24" ht="43.2" spans="2:2">
+    <row r="24" spans="1:5" ht="45">
       <c r="B24" s="10" t="s">
         <v>127</v>
       </c>
@@ -3059,7 +2449,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="27" ht="129.6" spans="1:5">
+    <row r="27" spans="1:5" ht="150">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -3077,14 +2467,14 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="30" spans="5:5">
+    <row r="30" spans="1:5">
       <c r="E30">
         <f>SUM(E3:E29)</f>
         <v>124150</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
@@ -3094,28 +2484,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF38"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.2222222222222" style="5" customWidth="1"/>
-    <col min="3" max="3" width="51.7685185185185" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.4537037037037" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" style="5" customWidth="1"/>
-    <col min="7" max="7" width="65.4444444444444" style="5" customWidth="1"/>
-    <col min="8" max="1024" width="8.88888888888889" style="5"/>
+    <col min="1" max="2" width="18.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="65.42578125" style="5" customWidth="1"/>
+    <col min="8" max="1024" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="12.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>132</v>
       </c>
@@ -3138,7 +2528,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" ht="13" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="12.95" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>137</v>
       </c>
@@ -3162,7 +2552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="13" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="12.95" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>137</v>
       </c>
@@ -3186,7 +2576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" ht="13" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="12.95" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
@@ -3210,7 +2600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="13" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="12.95" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>137</v>
       </c>
@@ -3234,7 +2624,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" ht="13" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="12.95" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>137</v>
       </c>
@@ -3258,7 +2648,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" ht="13" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="12.95" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>139</v>
       </c>
@@ -3282,7 +2672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" ht="13" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="12.95" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>139</v>
       </c>
@@ -3306,7 +2696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" ht="13" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="12.95" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>139</v>
       </c>
@@ -3330,7 +2720,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" ht="13" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="12.95" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>139</v>
       </c>
@@ -3354,7 +2744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" ht="13" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="12.95" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>139</v>
       </c>
@@ -3378,7 +2768,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" ht="13" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="12.95" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>139</v>
       </c>
@@ -3402,7 +2792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="13" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="12.95" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>139</v>
       </c>
@@ -3426,7 +2816,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" ht="13" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="12.95" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>139</v>
       </c>
@@ -3450,7 +2840,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" ht="13" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="12.95" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>139</v>
       </c>
@@ -3474,7 +2864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" ht="13" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="12.95" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>141</v>
       </c>
@@ -3498,7 +2888,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" ht="13" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="12.95" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>142</v>
       </c>
@@ -3522,7 +2912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" ht="13" customHeight="1" spans="1:6">
+    <row r="18" spans="1:7" ht="12.95" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>143</v>
       </c>
@@ -3543,7 +2933,7 @@
         <v>13580</v>
       </c>
     </row>
-    <row r="19" ht="13" customHeight="1" spans="1:6">
+    <row r="19" spans="1:7" ht="12.95" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
@@ -3564,7 +2954,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="20" ht="13" customHeight="1" spans="1:6">
+    <row r="20" spans="1:7" ht="12.95" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>143</v>
       </c>
@@ -3585,7 +2975,7 @@
         <v>38900</v>
       </c>
     </row>
-    <row r="21" ht="13" customHeight="1" spans="1:6">
+    <row r="21" spans="1:7" ht="12.95" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>143</v>
       </c>
@@ -3606,7 +2996,7 @@
         <v>9180</v>
       </c>
     </row>
-    <row r="22" ht="13" customHeight="1" spans="1:6">
+    <row r="22" spans="1:7" ht="12.95" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>143</v>
       </c>
@@ -3627,7 +3017,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="23" ht="13" customHeight="1" spans="1:6">
+    <row r="23" spans="1:7" ht="12.95" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>143</v>
       </c>
@@ -3648,7 +3038,7 @@
         <v>14660</v>
       </c>
     </row>
-    <row r="24" ht="13" customHeight="1" spans="1:6">
+    <row r="24" spans="1:7" ht="12.95" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>143</v>
       </c>
@@ -3669,7 +3059,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" ht="13" customHeight="1" spans="1:6">
+    <row r="25" spans="1:7" ht="12.95" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>143</v>
       </c>
@@ -3690,7 +3080,7 @@
         <v>22950</v>
       </c>
     </row>
-    <row r="26" ht="13" customHeight="1" spans="1:6">
+    <row r="26" spans="1:7" ht="12.95" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>143</v>
       </c>
@@ -3711,7 +3101,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="27" ht="13" customHeight="1" spans="1:6">
+    <row r="27" spans="1:7" ht="12.95" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>143</v>
       </c>
@@ -3732,7 +3122,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="28" ht="13" customHeight="1" spans="1:6">
+    <row r="28" spans="1:7" ht="12.95" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>143</v>
       </c>
@@ -3753,7 +3143,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="29" ht="13" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="12.95" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>146</v>
       </c>
@@ -3777,7 +3167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" ht="13" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="12.95" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>146</v>
       </c>
@@ -3801,7 +3191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" ht="13" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" ht="12.95" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>146</v>
       </c>
@@ -3825,7 +3215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" ht="13" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="12.95" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>146</v>
       </c>
@@ -3849,7 +3239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" ht="13" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="12.95" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>146</v>
       </c>
@@ -3873,7 +3263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" ht="13" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" ht="12.95" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>146</v>
       </c>
@@ -3897,7 +3287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" ht="13" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" ht="12.95" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>146</v>
       </c>
@@ -3921,7 +3311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" ht="13" customHeight="1" spans="5:6">
+    <row r="38" spans="1:7" ht="12.95" customHeight="1">
       <c r="E38" s="5" t="s">
         <v>147</v>
       </c>
@@ -3930,57 +3320,53 @@
         <v>668980</v>
       </c>
     </row>
-    <row r="1048574" ht="12.8" customHeight="1"/>
-    <row r="1048575" ht="12.8" customHeight="1"/>
-    <row r="1048576" ht="12.8" customHeight="1"/>
+    <row r="1048574" ht="12.75" customHeight="1"/>
+    <row r="1048575" ht="12.75" customHeight="1"/>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:G35">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:G35"/>
   <sortState ref="A2:AMJ35">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" display="https://www.equip.ru/shop?mode=product&amp;product_id=7069000"/>
-    <hyperlink ref="G8" r:id="rId2" display="https://www.equip.ru/shop?mode=product&amp;product_id=7046400"/>
-    <hyperlink ref="G9" r:id="rId3" display="https://www.equip.ru/shop?mode=product&amp;product_id=1785800"/>
-    <hyperlink ref="G10" r:id="rId4" display="https://www.equip.ru/shop?mode=product&amp;product_id=1782800"/>
-    <hyperlink ref="G11" r:id="rId5" display="https://www.equip.ru/shop?mode=product&amp;product_id=6362000"/>
-    <hyperlink ref="G31" r:id="rId6" display="https://www.equip.ru/shop?mode=product&amp;product_id=2620800"/>
-    <hyperlink ref="G13" r:id="rId7" display="https://www.equip.ru/shop?mode=product&amp;product_id=6797600"/>
-    <hyperlink ref="G2" r:id="rId8" display="https://www.equip.ru/shop?mode=product&amp;product_id=1860400"/>
-    <hyperlink ref="G3" r:id="rId9" display="https://www.equip.ru/shop?mode=product&amp;product_id=1933200"/>
-    <hyperlink ref="G4" r:id="rId10" display="https://www.equip.ru/shop?mode=product&amp;product_id=7077400"/>
-    <hyperlink ref="G5" r:id="rId11" display="https://www.equip.ru/shop?mode=product&amp;product_id=7344400"/>
-    <hyperlink ref="G6" r:id="rId12" display="https://www.equip.ru/shop?mode=product&amp;product_id=7039000"/>
-    <hyperlink ref="G14" r:id="rId13" display="https://www.equip.ru/shop?mode=product&amp;product_id=2098200"/>
-    <hyperlink ref="G15" r:id="rId14" display="https://www.equip.ru/shop?mode=product&amp;product_id=7074400"/>
+    <hyperlink ref="G7" r:id="rId1"/>
+    <hyperlink ref="G8" r:id="rId2"/>
+    <hyperlink ref="G9" r:id="rId3"/>
+    <hyperlink ref="G10" r:id="rId4"/>
+    <hyperlink ref="G11" r:id="rId5"/>
+    <hyperlink ref="G31" r:id="rId6"/>
+    <hyperlink ref="G13" r:id="rId7"/>
+    <hyperlink ref="G2" r:id="rId8"/>
+    <hyperlink ref="G3" r:id="rId9"/>
+    <hyperlink ref="G4" r:id="rId10"/>
+    <hyperlink ref="G5" r:id="rId11"/>
+    <hyperlink ref="G6" r:id="rId12"/>
+    <hyperlink ref="G14" r:id="rId13"/>
+    <hyperlink ref="G15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="17.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="23.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="12.8888888888889"/>
-    <col min="5" max="5" width="23.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>148</v>
       </c>
@@ -4006,14 +3392,14 @@
       </c>
       <c r="D2" s="4">
         <f>(1-C2/B2)*100</f>
-        <v>13.0648409182441</v>
+        <v>13.064840918244059</v>
       </c>
       <c r="E2" s="4">
         <f>B2-C2</f>
         <v>16220</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:5">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -4025,7 +3411,7 @@
       </c>
       <c r="D3" s="4">
         <f>(1-C3/B3)*100</f>
-        <v>21.7596195417207</v>
+        <v>21.75961954172071</v>
       </c>
       <c r="E3" s="4">
         <f>B3-C3</f>
@@ -4044,7 +3430,7 @@
       </c>
       <c r="D4" s="4">
         <f>(1-C4/B4)*100</f>
-        <v>21.6971995803406</v>
+        <v>21.697199580340566</v>
       </c>
       <c r="E4" s="4">
         <f>B4-C4</f>
@@ -4063,11 +3449,11 @@
       </c>
       <c r="D5" s="4">
         <f>(1-C5/B5)*100</f>
-        <v>21.2464477803645</v>
+        <v>21.246447780364452</v>
       </c>
       <c r="E5" s="4">
         <f>B5-C5</f>
-        <v>52933.4</v>
+        <v>52933.399999999994</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4082,7 +3468,7 @@
       </c>
       <c r="D6" s="4">
         <f>(1-C6/B6)*100</f>
-        <v>18.5444550669216</v>
+        <v>18.544455066921607</v>
       </c>
       <c r="E6" s="4">
         <f>B6-C6</f>
@@ -4091,25 +3477,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="18.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667"/>
-    <col min="9" max="9" width="12.8888888888889"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375"/>
+    <col min="9" max="9" width="12.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4164,7 +3548,7 @@
         <v>20328</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>6242</v>
       </c>
@@ -4179,7 +3563,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>8187</v>
       </c>
@@ -4194,7 +3578,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>12036</v>
       </c>
@@ -4208,7 +3592,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1190</v>
       </c>
@@ -4222,7 +3606,7 @@
         <v>14116</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>20655</v>
       </c>
@@ -4236,7 +3620,7 @@
         <v>23060</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>11608</v>
       </c>
@@ -4244,7 +3628,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>4960</v>
       </c>
@@ -4252,7 +3636,7 @@
         <v>23500</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>6794</v>
       </c>
@@ -4261,7 +3645,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>252</v>
       </c>
@@ -4290,31 +3674,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="19.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="28.8888888888889" customWidth="1"/>
-    <col min="5" max="6" width="10.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="8.44444444444444" customWidth="1"/>
-    <col min="8" max="8" width="10.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:9">
+    <row r="1" spans="1:10">
       <c r="E1" t="s">
         <v>143</v>
       </c>
@@ -4331,7 +3713,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="4:9">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="D2" t="s">
         <v>154</v>
       </c>
@@ -4351,7 +3733,7 @@
         <v>125520</v>
       </c>
     </row>
-    <row r="3" spans="4:9">
+    <row r="3" spans="1:10">
       <c r="D3" t="s">
         <v>155</v>
       </c>
@@ -4371,7 +3753,7 @@
         <v>102243</v>
       </c>
     </row>
-    <row r="4" spans="4:9">
+    <row r="4" spans="1:10">
       <c r="D4" t="s">
         <v>156</v>
       </c>
@@ -4396,7 +3778,7 @@
         <v>23277</v>
       </c>
     </row>
-    <row r="5" spans="4:9">
+    <row r="5" spans="1:10">
       <c r="D5" t="s">
         <v>157</v>
       </c>
@@ -4421,7 +3803,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -4588,7 +3970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:9">
+    <row r="17" spans="1:9">
       <c r="D17" t="s">
         <v>168</v>
       </c>
@@ -4613,13 +3995,12 @@
         <v>17210</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Matuchet/ЛОК 2023/Хозрасходы  ЛОК 2023 ЭБЦ.xlsx
+++ b/Matuchet/ЛОК 2023/Хозрасходы  ЛОК 2023 ЭБЦ.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Lab-processings\Matuchet\ЛОК 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="9150" tabRatio="500" firstSheet="5" activeTab="8"/>
+    <workbookView windowWidth="22188" windowHeight="9120" tabRatio="500" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Хайтов" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Сводка!$A$1:$G$35</definedName>
     <definedName name="Excel_BuiltIn_Print_Area" localSheetId="3">Пичугин!$A$1:$H$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -553,11 +561,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -642,18 +654,150 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,8 +810,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -690,10 +1020,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
@@ -701,11 +1270,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -727,7 +1296,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -737,7 +1306,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,160 +1314,90 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink 1" xfId="2"/>
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="50">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
+    <cellStyle name="Hyperlink 1" xfId="49"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -909,7 +1408,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -937,32 +1436,149 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1036,9 +1652,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1296,23 +1909,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="51.712962962963" customWidth="1"/>
+    <col min="3" max="3" width="59.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1339,7 +1952,7 @@
         <v>123910</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1360,7 +1973,7 @@
         <v>53600</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1381,7 +1994,7 @@
         <v>12150</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1402,7 +2015,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +2036,7 @@
         <v>35770</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1444,7 +2057,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1465,7 +2078,7 @@
         <v>10640</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1488,9 +2101,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.equip.ru/shop?mode=product&amp;product_id=2620800"/>
   </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
@@ -1500,21 +2113,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.57407407407407" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.4259259259259" customWidth="1"/>
+    <col min="2" max="2" width="29.5740740740741" customWidth="1"/>
+    <col min="3" max="3" width="31.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
@@ -1538,7 +2152,7 @@
       </c>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1560,7 +2174,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.5">
+    <row r="3" ht="31.2" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1584,7 +2198,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1606,7 +2220,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1628,7 +2242,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1652,7 +2266,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1676,7 +2290,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1698,7 +2312,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1712,15 +2326,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.equip.ru/shop?mode=product&amp;product_id=2620800"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.equip.ru/shop?mode=product&amp;product_id=6946800"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.equip.ru/shop?mode=product&amp;product_id=1860400"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://www.equip.ru/shop?mode=product&amp;product_id=1933200"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://www.equip.ru/shop?mode=product&amp;product_id=7077400"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.equip.ru/shop?mode=product&amp;product_id=7344400"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://www.equip.ru/shop?mode=product&amp;product_id=7039000"/>
   </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
@@ -1730,20 +2344,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.57407407407407" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="1024" max="1024" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.4259259259259" customWidth="1"/>
+    <col min="2" max="2" width="29.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="23.5740740740741" customWidth="1"/>
+    <col min="8" max="8" width="25.5740740740741" customWidth="1"/>
+    <col min="1024" max="1024" width="9.13888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1995,7 +2610,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2018,7 +2633,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="7:7">
       <c r="G13">
         <f>SUM(G2:G12)</f>
         <v>249140</v>
@@ -2026,42 +2641,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.equip.ru/shop?mode=product&amp;product_id=7069000"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.equip.ru/shop?mode=product&amp;product_id=7046400"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.equip.ru/shop?mode=product&amp;product_id=1785800"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://www.equip.ru/shop?mode=product&amp;product_id=1782800"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://www.equip.ru/shop?mode=product&amp;product_id=6362000"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.equip.ru/shop?mode=product&amp;product_id=2098200"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://www.equip.ru/shop?mode=product&amp;product_id=7074400"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://www.equip.ru/shop?mode=product&amp;product_id=1895600"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://www.equip.ru/shop?mode=product&amp;product_id=6797600"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.4259259259259" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.4259259259259" style="11" customWidth="1"/>
+    <col min="3" max="3" width="5.13888888888889" style="11" customWidth="1"/>
     <col min="4" max="4" width="4" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.85185185185185" style="11" customWidth="1"/>
+    <col min="6" max="6" width="20.712962962963" style="11" customWidth="1"/>
+    <col min="7" max="7" width="3.57407407407407" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="77.25">
+    <row r="2" ht="79.2" spans="1:7">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2082,7 +2699,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" ht="38.25">
+    <row r="3" ht="39.6" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>78</v>
       </c>
@@ -2104,7 +2721,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="153">
+    <row r="4" ht="158.4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>92</v>
       </c>
@@ -2135,19 +2752,19 @@
       <c r="F5" s="16"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="5:5">
       <c r="E6" s="11">
         <f>SUM(E3:E5)</f>
         <v>125520</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="6:6">
       <c r="F9" s="11">
         <v>125300</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
@@ -2157,20 +2774,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.57407407407407" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="39.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="38.287037037037" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -2210,7 +2828,7 @@
         <v>9180</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="2:5">
       <c r="B4" s="10" t="s">
         <v>102</v>
       </c>
@@ -2219,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="2:5">
       <c r="B5" s="10" t="s">
         <v>103</v>
       </c>
@@ -2228,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="2:5">
       <c r="B6" s="10" t="s">
         <v>104</v>
       </c>
@@ -2237,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="2:2">
       <c r="B7" s="10" t="s">
         <v>105</v>
       </c>
@@ -2260,27 +2878,27 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="2:2">
       <c r="B9" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="2:2">
       <c r="B10" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="2:2">
       <c r="B11" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="2:2">
       <c r="B12" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60">
+    <row r="14" ht="43.2" spans="1:5">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -2331,7 +2949,7 @@
         <v>38900</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="120">
+    <row r="17" ht="115.2" spans="2:2">
       <c r="B17" s="10" t="s">
         <v>116</v>
       </c>
@@ -2354,7 +2972,7 @@
         <v>22950</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="167.25" customHeight="1">
+    <row r="19" ht="167.25" customHeight="1" spans="2:5">
       <c r="B19" s="10" t="s">
         <v>119</v>
       </c>
@@ -2363,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="60">
+    <row r="20" ht="57.6" spans="1:5">
       <c r="A20" t="s">
         <v>120</v>
       </c>
@@ -2399,7 +3017,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="2:5">
       <c r="B22" s="10" t="s">
         <v>124</v>
       </c>
@@ -2426,7 +3044,7 @@
         <v>13580</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45">
+    <row r="24" ht="43.2" spans="2:2">
       <c r="B24" s="10" t="s">
         <v>127</v>
       </c>
@@ -2449,7 +3067,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="150">
+    <row r="27" ht="129.6" spans="1:5">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -2467,14 +3085,14 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="5:5">
       <c r="E30">
         <f>SUM(E3:E29)</f>
         <v>124150</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
@@ -2484,28 +3102,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFFFF38"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="65.42578125" style="5" customWidth="1"/>
-    <col min="8" max="1024" width="8.85546875" style="5"/>
+    <col min="1" max="2" width="18.287037037037" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.712962962963" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.4259259259259" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.8518518518519" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.8518518518519" style="5" customWidth="1"/>
+    <col min="7" max="7" width="65.4259259259259" style="5" customWidth="1"/>
+    <col min="8" max="1024" width="8.85185185185185" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.95" customHeight="1">
+    <row r="1" ht="12.95" customHeight="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>132</v>
       </c>
@@ -2528,7 +3146,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.95" customHeight="1">
+    <row r="2" ht="12.95" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>137</v>
       </c>
@@ -2552,7 +3170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.95" customHeight="1">
+    <row r="3" ht="12.95" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>137</v>
       </c>
@@ -2576,7 +3194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.95" customHeight="1">
+    <row r="4" ht="12.95" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
@@ -2600,7 +3218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.95" customHeight="1">
+    <row r="5" ht="12.95" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>137</v>
       </c>
@@ -2624,7 +3242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.95" customHeight="1">
+    <row r="6" ht="12.95" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>137</v>
       </c>
@@ -2648,7 +3266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.95" customHeight="1">
+    <row r="7" ht="12.95" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>139</v>
       </c>
@@ -2672,7 +3290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.95" customHeight="1">
+    <row r="8" ht="12.95" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>139</v>
       </c>
@@ -2696,7 +3314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.95" customHeight="1">
+    <row r="9" ht="12.95" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>139</v>
       </c>
@@ -2720,7 +3338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.95" customHeight="1">
+    <row r="10" ht="12.95" customHeight="1" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>139</v>
       </c>
@@ -2744,7 +3362,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.95" customHeight="1">
+    <row r="11" ht="12.95" customHeight="1" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>139</v>
       </c>
@@ -2768,7 +3386,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.95" customHeight="1">
+    <row r="12" ht="12.95" customHeight="1" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>139</v>
       </c>
@@ -2792,7 +3410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.95" customHeight="1">
+    <row r="13" ht="12.95" customHeight="1" spans="1:7">
       <c r="A13" s="5" t="s">
         <v>139</v>
       </c>
@@ -2816,7 +3434,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.95" customHeight="1">
+    <row r="14" ht="12.95" customHeight="1" spans="1:7">
       <c r="A14" s="5" t="s">
         <v>139</v>
       </c>
@@ -2840,7 +3458,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.95" customHeight="1">
+    <row r="15" ht="12.95" customHeight="1" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>139</v>
       </c>
@@ -2864,7 +3482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.95" customHeight="1">
+    <row r="16" ht="12.95" customHeight="1" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>141</v>
       </c>
@@ -2888,7 +3506,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.95" customHeight="1">
+    <row r="17" ht="12.95" customHeight="1" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>142</v>
       </c>
@@ -2912,7 +3530,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.95" customHeight="1">
+    <row r="18" ht="12.95" customHeight="1" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>143</v>
       </c>
@@ -2933,7 +3551,7 @@
         <v>13580</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.95" customHeight="1">
+    <row r="19" ht="12.95" customHeight="1" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
@@ -2954,7 +3572,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.95" customHeight="1">
+    <row r="20" ht="12.95" customHeight="1" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>143</v>
       </c>
@@ -2975,7 +3593,7 @@
         <v>38900</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.95" customHeight="1">
+    <row r="21" ht="12.95" customHeight="1" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>143</v>
       </c>
@@ -2996,7 +3614,7 @@
         <v>9180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.95" customHeight="1">
+    <row r="22" ht="12.95" customHeight="1" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>143</v>
       </c>
@@ -3017,7 +3635,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.95" customHeight="1">
+    <row r="23" ht="12.95" customHeight="1" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>143</v>
       </c>
@@ -3038,7 +3656,7 @@
         <v>14660</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.95" customHeight="1">
+    <row r="24" ht="12.95" customHeight="1" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>143</v>
       </c>
@@ -3059,7 +3677,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.95" customHeight="1">
+    <row r="25" ht="12.95" customHeight="1" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>143</v>
       </c>
@@ -3080,7 +3698,7 @@
         <v>22950</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.95" customHeight="1">
+    <row r="26" ht="12.95" customHeight="1" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>143</v>
       </c>
@@ -3101,7 +3719,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.95" customHeight="1">
+    <row r="27" ht="12.95" customHeight="1" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>143</v>
       </c>
@@ -3122,7 +3740,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.95" customHeight="1">
+    <row r="28" ht="12.95" customHeight="1" spans="1:6">
       <c r="A28" s="5" t="s">
         <v>143</v>
       </c>
@@ -3143,7 +3761,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.95" customHeight="1">
+    <row r="29" ht="12.95" customHeight="1" spans="1:7">
       <c r="A29" s="5" t="s">
         <v>146</v>
       </c>
@@ -3167,7 +3785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.95" customHeight="1">
+    <row r="30" ht="12.95" customHeight="1" spans="1:7">
       <c r="A30" s="5" t="s">
         <v>146</v>
       </c>
@@ -3191,7 +3809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="12.95" customHeight="1">
+    <row r="31" ht="12.95" customHeight="1" spans="1:7">
       <c r="A31" s="5" t="s">
         <v>146</v>
       </c>
@@ -3215,7 +3833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.95" customHeight="1">
+    <row r="32" ht="12.95" customHeight="1" spans="1:7">
       <c r="A32" s="5" t="s">
         <v>146</v>
       </c>
@@ -3239,7 +3857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.95" customHeight="1">
+    <row r="33" ht="12.95" customHeight="1" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>146</v>
       </c>
@@ -3263,7 +3881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.95" customHeight="1">
+    <row r="34" ht="12.95" customHeight="1" spans="1:7">
       <c r="A34" s="5" t="s">
         <v>146</v>
       </c>
@@ -3287,7 +3905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.95" customHeight="1">
+    <row r="35" ht="12.95" customHeight="1" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>146</v>
       </c>
@@ -3311,7 +3929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.95" customHeight="1">
+    <row r="38" ht="12.95" customHeight="1" spans="5:6">
       <c r="E38" s="5" t="s">
         <v>147</v>
       </c>
@@ -3324,49 +3942,53 @@
     <row r="1048575" ht="12.75" customHeight="1"/>
     <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:G35"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G35" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A2:AMJ35">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1"/>
-    <hyperlink ref="G8" r:id="rId2"/>
-    <hyperlink ref="G9" r:id="rId3"/>
-    <hyperlink ref="G10" r:id="rId4"/>
-    <hyperlink ref="G11" r:id="rId5"/>
-    <hyperlink ref="G31" r:id="rId6"/>
-    <hyperlink ref="G13" r:id="rId7"/>
-    <hyperlink ref="G2" r:id="rId8"/>
-    <hyperlink ref="G3" r:id="rId9"/>
-    <hyperlink ref="G4" r:id="rId10"/>
-    <hyperlink ref="G5" r:id="rId11"/>
-    <hyperlink ref="G6" r:id="rId12"/>
-    <hyperlink ref="G14" r:id="rId13"/>
-    <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G7" r:id="rId1" display="https://www.equip.ru/shop?mode=product&amp;product_id=7069000"/>
+    <hyperlink ref="G8" r:id="rId2" display="https://www.equip.ru/shop?mode=product&amp;product_id=7046400"/>
+    <hyperlink ref="G9" r:id="rId3" display="https://www.equip.ru/shop?mode=product&amp;product_id=1785800"/>
+    <hyperlink ref="G10" r:id="rId4" display="https://www.equip.ru/shop?mode=product&amp;product_id=1782800"/>
+    <hyperlink ref="G11" r:id="rId5" display="https://www.equip.ru/shop?mode=product&amp;product_id=6362000"/>
+    <hyperlink ref="G31" r:id="rId6" display="https://www.equip.ru/shop?mode=product&amp;product_id=2620800"/>
+    <hyperlink ref="G13" r:id="rId7" display="https://www.equip.ru/shop?mode=product&amp;product_id=6797600"/>
+    <hyperlink ref="G2" r:id="rId8" display="https://www.equip.ru/shop?mode=product&amp;product_id=1860400"/>
+    <hyperlink ref="G3" r:id="rId9" display="https://www.equip.ru/shop?mode=product&amp;product_id=1933200"/>
+    <hyperlink ref="G4" r:id="rId10" display="https://www.equip.ru/shop?mode=product&amp;product_id=7077400"/>
+    <hyperlink ref="G5" r:id="rId11" display="https://www.equip.ru/shop?mode=product&amp;product_id=7344400"/>
+    <hyperlink ref="G6" r:id="rId12" display="https://www.equip.ru/shop?mode=product&amp;product_id=7039000"/>
+    <hyperlink ref="G14" r:id="rId13" display="https://www.equip.ru/shop?mode=product&amp;product_id=2098200"/>
+    <hyperlink ref="G15" r:id="rId14" display="https://www.equip.ru/shop?mode=product&amp;product_id=7074400"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="17.712962962963" customWidth="1"/>
+    <col min="3" max="3" width="23.4259259259259" customWidth="1"/>
+    <col min="4" max="4" width="12.8518518518519"/>
+    <col min="5" max="5" width="23.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>148</v>
       </c>
@@ -3392,14 +4014,14 @@
       </c>
       <c r="D2" s="4">
         <f>(1-C2/B2)*100</f>
-        <v>13.064840918244059</v>
+        <v>13.0648409182441</v>
       </c>
       <c r="E2" s="4">
         <f>B2-C2</f>
         <v>16220</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" ht="15.6" spans="1:5">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -3411,7 +4033,7 @@
       </c>
       <c r="D3" s="4">
         <f>(1-C3/B3)*100</f>
-        <v>21.75961954172071</v>
+        <v>21.7596195417207</v>
       </c>
       <c r="E3" s="4">
         <f>B3-C3</f>
@@ -3430,7 +4052,7 @@
       </c>
       <c r="D4" s="4">
         <f>(1-C4/B4)*100</f>
-        <v>21.697199580340566</v>
+        <v>21.6971995803406</v>
       </c>
       <c r="E4" s="4">
         <f>B4-C4</f>
@@ -3449,11 +4071,11 @@
       </c>
       <c r="D5" s="4">
         <f>(1-C5/B5)*100</f>
-        <v>21.246447780364452</v>
+        <v>21.2464477803645</v>
       </c>
       <c r="E5" s="4">
         <f>B5-C5</f>
-        <v>52933.399999999994</v>
+        <v>52933.4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3468,7 +4090,7 @@
       </c>
       <c r="D6" s="4">
         <f>(1-C6/B6)*100</f>
-        <v>18.544455066921607</v>
+        <v>18.5444550669216</v>
       </c>
       <c r="E6" s="4">
         <f>B6-C6</f>
@@ -3477,23 +4099,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375"/>
-    <col min="9" max="9" width="12.85546875"/>
+    <col min="2" max="2" width="10.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="18.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="9.71296296296296"/>
+    <col min="9" max="9" width="12.8518518518519"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3548,7 +4172,7 @@
         <v>20328</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>6242</v>
       </c>
@@ -3563,7 +4187,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>8187</v>
       </c>
@@ -3578,7 +4202,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>12036</v>
       </c>
@@ -3592,7 +4216,7 @@
         <v>41676</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1190</v>
       </c>
@@ -3606,7 +4230,7 @@
         <v>14116</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>20655</v>
       </c>
@@ -3620,7 +4244,7 @@
         <v>23060</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>11608</v>
       </c>
@@ -3628,7 +4252,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>4960</v>
       </c>
@@ -3636,7 +4260,7 @@
         <v>23500</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>6794</v>
       </c>
@@ -3645,7 +4269,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>252</v>
       </c>
@@ -3674,29 +4298,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.712962962963" customWidth="1"/>
+    <col min="3" max="3" width="11.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="28.8518518518519" customWidth="1"/>
+    <col min="5" max="6" width="10.712962962963" customWidth="1"/>
+    <col min="7" max="7" width="8.42592592592593" customWidth="1"/>
+    <col min="8" max="8" width="10.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="5:9">
       <c r="E1" t="s">
         <v>143</v>
       </c>
@@ -3713,7 +4339,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" ht="15.6" spans="4:9">
       <c r="D2" t="s">
         <v>154</v>
       </c>
@@ -3733,7 +4359,7 @@
         <v>125520</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="4:9">
       <c r="D3" t="s">
         <v>155</v>
       </c>
@@ -3753,7 +4379,7 @@
         <v>102243</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="4:9">
       <c r="D4" t="s">
         <v>156</v>
       </c>
@@ -3778,7 +4404,7 @@
         <v>23277</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="4:9">
       <c r="D5" t="s">
         <v>157</v>
       </c>
@@ -3803,7 +4429,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -3970,7 +4596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="4:9">
       <c r="D17" t="s">
         <v>168</v>
       </c>
@@ -3995,12 +4621,13 @@
         <v>17210</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>